--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-fabricante.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-fabricante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0982401F-99BD-4170-85A4-693FE76C67BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FF302D-1BD0-4C5E-9610-F7CE578610B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>Nombre</t>
   </si>
@@ -165,18 +165,6 @@
     <t>¿Qué hago?</t>
   </si>
   <si>
-    <t>Reponsabilidad 1</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 2</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 3</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 4</t>
-  </si>
-  <si>
     <t>Identificador</t>
   </si>
   <si>
@@ -219,10 +207,115 @@
     <t>Fabricante</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la informacion de las empresas que fabrican marcas de productos de tecnologia</t>
-  </si>
-  <si>
     <t>Propio</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de las empresas que fabrican marcas de productos para los spa</t>
+  </si>
+  <si>
+    <t>crear Fabricante</t>
+  </si>
+  <si>
+    <t>modificar Fabricante</t>
+  </si>
+  <si>
+    <t>Consultar Fabricante</t>
+  </si>
+  <si>
+    <t>Eliminar Fabricante</t>
+  </si>
+  <si>
+    <t>Pol-Fabricante-001</t>
+  </si>
+  <si>
+    <t>No debe existir otro Fabricante con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Pol-Fabricante-002</t>
+  </si>
+  <si>
+    <t>Los datos del nuevo Fabricante deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un fabricante con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del fabricante</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que violaciones respecto a tipo de dato, longitud, obligatoriedad, formato o rango no se cumplieron</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un fabricante.</t>
+  </si>
+  <si>
+    <t>Pol-Fabricante-004</t>
+  </si>
+  <si>
+    <t>Pol-Fabricante-005</t>
+  </si>
+  <si>
+    <t>No debe existir otro Fabricante con el mismo nombre, a exepcion de que sea el mismo que se esta modificando.</t>
+  </si>
+  <si>
+    <t>Debe existir el Fabricante que se esta modificando</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo fabricante en el sistema.</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del fabricante</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un fabricante creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un fabricante en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el fabricante no existe.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un fabricante registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un fabricante.</t>
+  </si>
+  <si>
+    <t>Pol-Fabricante-003</t>
+  </si>
+  <si>
+    <t>Si se envía parametros de consulta, deben ser validos a nivel de tipo de datos, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar un fabricante del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se minimicen los impactos negativos</t>
+  </si>
+  <si>
+    <t>datos Fabricante</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos fabricantes al sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Pol-Fabricante-006</t>
+  </si>
+  <si>
+    <t>Que el Fabricante exista y que no tenga productos asociados</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el fabricante</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del fabricante</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada Fabricante.</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del fabricante</t>
   </si>
 </sst>
 </file>
@@ -278,10 +371,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -346,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -511,13 +604,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -571,9 +790,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -622,116 +838,17 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -743,6 +860,246 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -837,9 +1194,6 @@
         <row r="2">
           <cell r="A2" t="str">
             <v>Fabricante</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Objeto de dominio que contiene la informacion de todas las empresas que fabrican marcas de productos de tecnologia</v>
           </cell>
         </row>
       </sheetData>
@@ -1189,7 +1543,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,32 +1555,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>49</v>
+      <c r="A1" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="str">
+      <c r="A2" s="42" t="str">
         <f>'Objeto Dominio-fabricante'!B2</f>
         <v>Fabricante</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>50</v>
+      <c r="B2" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1241,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:P3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,86 +1609,89 @@
     <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="1" bestFit="1"/>
     <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="58.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="68.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="52" t="str">
         <f>'[1]Listado Objetos de Dominio'!$A$2</f>
         <v>Fabricante</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="49" t="str">
-        <f>'[1]Listado Objetos de Dominio'!$B$2</f>
-        <v>Objeto de dominio que contiene la informacion de todas las empresas que fabrican marcas de productos de tecnologia</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="B3" s="53" t="str">
+        <f>'Listado Objetos de Dominio'!B2</f>
+        <v>Objeto de dominio que contiene la informacion de las empresas que fabrican marcas de productos para los spa</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1385,29 +1742,29 @@
       <c r="P4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="35" t="str">
+      <c r="Q4" s="34" t="str">
         <f>A14</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="33" t="str">
-        <f>A15</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="34" t="str">
+        <v>crear Fabricante</v>
+      </c>
+      <c r="R4" s="32" t="str">
         <f>A16</f>
-        <v>Reponsabilidad 3</v>
+        <v>modificar Fabricante</v>
+      </c>
+      <c r="S4" s="33" t="str">
+        <f>A19</f>
+        <v>Consultar Fabricante</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A17</f>
-        <v>Reponsabilidad 4</v>
+        <f>A20</f>
+        <v>Eliminar Fabricante</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1420,34 +1777,34 @@
       <c r="I5" s="5"/>
       <c r="J5" s="12"/>
       <c r="K5" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="29"/>
+        <v>37</v>
+      </c>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1462,35 +1819,35 @@
       <c r="I6" s="5"/>
       <c r="J6" s="12"/>
       <c r="K6" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="29"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -1504,57 +1861,57 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
-        <v>44</v>
+      <c r="A10" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="74" t="str">
+        <v>41</v>
+      </c>
+      <c r="C10" s="40" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54" t="s">
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54" t="s">
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="57"/>
+      <c r="R12" s="45"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -1567,12 +1924,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -1582,114 +1939,255 @@
       <c r="Q13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="23" t="s">
+      <c r="R13" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="24"/>
+    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="71" t="str">
+        <f>B6</f>
+        <v>ALFANUMERICO</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="71"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="25"/>
+    <row r="15" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
+    <row r="16" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="93" t="str">
+        <f>B6</f>
+        <v>ALFANUMERICO</v>
+      </c>
+      <c r="I16" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="96"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="31"/>
+    <row r="17" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="120"/>
+      <c r="C19" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="117" t="str">
+        <f>B6</f>
+        <v>ALFANUMERICO</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="122"/>
+      <c r="C20" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="123" t="str">
+        <f>B6</f>
+        <v>ALFANUMERICO</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H21" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
+  <mergeCells count="31">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -1699,19 +2197,39 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:N15"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F9401B66-4287-4C21-972B-737D6B78701C}"/>
-    <hyperlink ref="H17" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{99FEA11C-3113-4B8C-A35D-BF4919AD9E82}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{B9D983F0-41B3-4F3A-B8A8-8B4E68534142}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12115AC6-9391-46BF-8E63-2F553BBA6DA3}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{B5154270-4937-4578-A238-F7424B7F90DA}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{65B70112-C141-453E-883C-56A8626FADBD}"/>
-    <hyperlink ref="A14:B14" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{4A94EB2D-FB69-4AC6-A41D-4FAEC7B8BA26}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{315C33FB-FA31-4902-BFBF-E0777B3535A1}"/>
+    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{315C33FB-FA31-4902-BFBF-E0777B3535A1}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{FF30BCF6-E823-40C0-8ADA-119FD8664C5E}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{3A193268-569A-453D-969C-DD35A4110BAD}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{879E98EB-95A3-41E0-B96E-25CF8D2733CB}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{879E98EB-95A3-41E0-B96E-25CF8D2733CB}"/>
     <hyperlink ref="C10" location="'Objeto Dominio-fabricante'!A6" display="'Objeto Dominio-fabricante'!A6" xr:uid="{20DC7912-186C-4DDC-A2D6-CE95EFD8D4A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1720,12 +2238,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1873,15 +2388,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1905,10 +2424,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
